--- a/website/word_heat/data/percentile.xlsx
+++ b/website/word_heat/data/percentile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>percentile</t>
   </si>
@@ -43,9 +43,6 @@
     <t>加息</t>
   </si>
   <si>
-    <t>税</t>
-  </si>
-  <si>
     <t>监管</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
     <t>原油</t>
   </si>
   <si>
+    <t>复苏</t>
+  </si>
+  <si>
     <t>银行</t>
   </si>
   <si>
@@ -73,10 +73,22 @@
     <t>股票</t>
   </si>
   <si>
+    <t>衰退</t>
+  </si>
+  <si>
+    <t>滞胀</t>
+  </si>
+  <si>
+    <t>扩张</t>
+  </si>
+  <si>
     <t>汇率</t>
   </si>
   <si>
     <t>杠杆</t>
+  </si>
+  <si>
+    <t>通缩</t>
   </si>
   <si>
     <t>美元</t>
@@ -446,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,7 +474,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.7980769230769231</v>
+        <v>0.6660714285714285</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -470,7 +482,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.7019230769230769</v>
+        <v>0.4</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -478,7 +490,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.6673076923076923</v>
+        <v>0.5982142857142857</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -486,7 +498,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.7826923076923077</v>
+        <v>0.3910714285714286</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -494,7 +506,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.7519230769230769</v>
+        <v>0.9821428571428571</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -502,7 +514,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.625</v>
+        <v>0.8142857142857143</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -510,7 +522,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.8096153846153846</v>
+        <v>0.9678571428571429</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -518,7 +530,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.5980769230769231</v>
+        <v>0.9732142857142857</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -526,7 +538,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.9634615384615385</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -534,7 +546,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.9980769230769231</v>
+        <v>0.7339285714285714</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -542,7 +554,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.7903846153846154</v>
+        <v>0.6375</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -550,7 +562,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.6307692307692307</v>
+        <v>0.8517857142857143</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -558,7 +570,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.9153846153846154</v>
+        <v>0.7482142857142857</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -566,7 +578,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>1</v>
+        <v>0.8142857142857143</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -574,7 +586,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.9307692307692308</v>
+        <v>0.7125</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -582,7 +594,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.9115384615384615</v>
+        <v>0.8339285714285715</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -590,7 +602,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.9826923076923076</v>
+        <v>0.75</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -598,7 +610,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.7807692307692308</v>
+        <v>0.5392857142857143</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -606,7 +618,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.9865384615384616</v>
+        <v>0.5803571428571429</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -614,7 +626,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.7961538461538461</v>
+        <v>0.9732142857142857</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -622,7 +634,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.9865384615384616</v>
+        <v>0.3178571428571428</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -630,7 +642,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.6730769230769231</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -638,10 +650,42 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.8153846153846154</v>
+        <v>0.8</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>0.8285714285714286</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>0.6821428571428572</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>0.3535714285714286</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>0.3642857142857143</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/website/word_heat/data/percentile.xlsx
+++ b/website/word_heat/data/percentile.xlsx
@@ -474,7 +474,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.6660714285714285</v>
+        <v>0.883248730964467</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.4</v>
+        <v>0.8087986463620981</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.5982142857142857</v>
+        <v>0.7309644670050761</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.3910714285714286</v>
+        <v>0.7225042301184433</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.9821428571428571</v>
+        <v>0.9187817258883249</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.8142857142857143</v>
+        <v>0.7241962774957699</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.9678571428571429</v>
+        <v>0.6988155668358714</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.9732142857142857</v>
+        <v>0.8087986463620981</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.7714285714285715</v>
+        <v>0.6954314720812182</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.7339285714285714</v>
+        <v>0.9898477157360406</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.6375</v>
+        <v>0.7174280879864636</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.8517857142857143</v>
+        <v>0.404399323181049</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.7482142857142857</v>
+        <v>0.9746192893401016</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.8142857142857143</v>
+        <v>0.7021996615905245</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.7125</v>
+        <v>0.4077834179357022</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.8339285714285715</v>
+        <v>0.6362098138747885</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.75</v>
+        <v>0.7766497461928934</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.5392857142857143</v>
+        <v>0.961082910321489</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.5803571428571429</v>
+        <v>0.9746192893401016</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.9732142857142857</v>
+        <v>0.8003384094754653</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.3178571428571428</v>
+        <v>0.6632825719120136</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>1</v>
+        <v>0.5262267343485617</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.8</v>
+        <v>0.688663282571912</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.8285714285714286</v>
+        <v>0.9898477157360406</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.6821428571428572</v>
+        <v>0.6971235194585449</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.3535714285714286</v>
+        <v>0.7123519458544839</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.3642857142857143</v>
+        <v>0.688663282571912</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>

--- a/website/word_heat/data/percentile.xlsx
+++ b/website/word_heat/data/percentile.xlsx
@@ -473,217 +473,136 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>0.883248730964467</v>
-      </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
-        <v>0.8087986463620981</v>
-      </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
-        <v>0.7309644670050761</v>
-      </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
-        <v>0.7225042301184433</v>
-      </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
-        <v>0.9187817258883249</v>
-      </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7">
-        <v>0.7241962774957699</v>
-      </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8">
-        <v>0.6988155668358714</v>
-      </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9">
-        <v>0.8087986463620981</v>
-      </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10">
-        <v>0.6954314720812182</v>
-      </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11">
-        <v>0.9898477157360406</v>
-      </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12">
-        <v>0.7174280879864636</v>
-      </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13">
-        <v>0.404399323181049</v>
-      </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14">
-        <v>0.9746192893401016</v>
-      </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15">
-        <v>0.7021996615905245</v>
-      </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16">
-        <v>0.4077834179357022</v>
-      </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>0.6362098138747885</v>
-      </c>
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>0.7766497461928934</v>
-      </c>
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>0.961082910321489</v>
-      </c>
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>0.9746192893401016</v>
-      </c>
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>0.8003384094754653</v>
-      </c>
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>0.6632825719120136</v>
-      </c>
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>0.5262267343485617</v>
-      </c>
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>0.688663282571912</v>
-      </c>
+    <row r="24" spans="2:2">
       <c r="B24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>0.9898477157360406</v>
-      </c>
+    <row r="25" spans="2:2">
       <c r="B25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>0.6971235194585449</v>
-      </c>
+    <row r="26" spans="2:2">
       <c r="B26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>0.7123519458544839</v>
-      </c>
+    <row r="27" spans="2:2">
       <c r="B27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>0.688663282571912</v>
-      </c>
+    <row r="28" spans="2:2">
       <c r="B28" t="s">
         <v>28</v>
       </c>

--- a/website/word_heat/data/percentile.xlsx
+++ b/website/word_heat/data/percentile.xlsx
@@ -473,136 +473,217 @@
       </c>
     </row>
     <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0.7205438066465257</v>
+      </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
+      <c r="A3">
+        <v>0.5709969788519638</v>
+      </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
+      <c r="A4">
+        <v>0.8806646525679759</v>
+      </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
+      <c r="A5">
+        <v>0.2145015105740181</v>
+      </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
+      <c r="A6">
+        <v>0.8368580060422961</v>
+      </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
+      <c r="A7">
+        <v>0.850453172205438</v>
+      </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
+      <c r="A8">
+        <v>0.7477341389728097</v>
+      </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
+      <c r="A9">
+        <v>0.513595166163142</v>
+      </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
+      <c r="A10">
+        <v>0.7764350453172205</v>
+      </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
+      <c r="A11">
+        <v>0.783987915407855</v>
+      </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
+      <c r="A12">
+        <v>0.6510574018126888</v>
+      </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
+      <c r="A13">
+        <v>0.8474320241691843</v>
+      </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
+      <c r="A14">
+        <v>0.5800604229607251</v>
+      </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
+      <c r="A15">
+        <v>0.648036253776435</v>
+      </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2">
+      <c r="A16">
+        <v>0.7265861027190332</v>
+      </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>0.8746223564954683</v>
+      </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>0.7537764350453172</v>
+      </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>0.5755287009063444</v>
+      </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>0.5015105740181269</v>
+      </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>0.6540785498489426</v>
+      </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>0.2583081570996979</v>
+      </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>0.6117824773413897</v>
+      </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>0.8731117824773413</v>
+      </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>0.8957703927492447</v>
+      </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>0.7220543806646526</v>
+      </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>0.581570996978852</v>
+      </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>0.1858006042296073</v>
+      </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>

--- a/website/word_heat/data/percentile.xlsx
+++ b/website/word_heat/data/percentile.xlsx
@@ -474,7 +474,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.7205438066465257</v>
+        <v>0.727810650887574</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.5709969788519638</v>
+        <v>0.7991341991341991</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.8806646525679759</v>
+        <v>0.1740827478532397</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.2145015105740181</v>
+        <v>0.3357723577235772</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.8368580060422961</v>
+        <v>0.4311377245508982</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.850453172205438</v>
+        <v>0.2722616233254531</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.7477341389728097</v>
+        <v>0.7866826156299841</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.513595166163142</v>
+        <v>0.9341792228390167</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.7764350453172205</v>
+        <v>0.7452904238618524</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.783987915407855</v>
+        <v>0.3013861386138614</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.6510574018126888</v>
+        <v>0.3968688845401174</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.8474320241691843</v>
+        <v>0.2764920828258222</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.5800604229607251</v>
+        <v>0.4342879560612005</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.648036253776435</v>
+        <v>0.5600470957613815</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.7265861027190332</v>
+        <v>0.9143546441495778</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.8746223564954683</v>
+        <v>0.6051282051282051</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.7537764350453172</v>
+        <v>0.7663149667839</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.5755287009063444</v>
+        <v>0.2756586708611876</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.5015105740181269</v>
+        <v>0.5402618008726696</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.6540785498489426</v>
+        <v>0.3458823529411765</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.2583081570996979</v>
+        <v>0.1496379726468222</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.6117824773413897</v>
+        <v>0.9182670835194283</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.8731117824773413</v>
+        <v>0.2069776558212466</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.8957703927492447</v>
+        <v>0.2446640316205534</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.7220543806646526</v>
+        <v>0.8930868167202572</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.581570996978852</v>
+        <v>0.7677364864864865</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.1858006042296073</v>
+        <v>0.2292863002461034</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>

--- a/website/word_heat/data/percentile.xlsx
+++ b/website/word_heat/data/percentile.xlsx
@@ -474,7 +474,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.727810650887574</v>
+        <v>0.9804839968774395</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.7991341991341991</v>
+        <v>0.8070175438596491</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.1740827478532397</v>
+        <v>0.2197759752800309</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.3357723577235772</v>
+        <v>0.6449537595496582</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.4311377245508982</v>
+        <v>0.5687203791469194</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.2722616233254531</v>
+        <v>0.675243664717349</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.7866826156299841</v>
+        <v>0.3088757396449704</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.9341792228390167</v>
+        <v>0.9843075715967046</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.7452904238618524</v>
+        <v>0.9227184466019418</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.3013861386138614</v>
+        <v>0.4514106583072101</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.3968688845401174</v>
+        <v>0.3721920991479473</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.2764920828258222</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.4342879560612005</v>
+        <v>0.7298136645962733</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.5600470957613815</v>
+        <v>0.7809708737864077</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.9143546441495778</v>
+        <v>0.8532219570405728</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.6051282051282051</v>
+        <v>0.6756440281030445</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.7663149667839</v>
+        <v>0.7126836813611755</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.2756586708611876</v>
+        <v>0.533852140077821</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.5402618008726696</v>
+        <v>0.9046310832025117</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.3458823529411765</v>
+        <v>0.6045789677920063</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.1496379726468222</v>
+        <v>0.7520891364902507</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.9182670835194283</v>
+        <v>0.9329214474845543</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.2069776558212466</v>
+        <v>0.4010861132660978</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.2446640316205534</v>
+        <v>0.4419241298396558</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.8930868167202572</v>
+        <v>0.8489065606361829</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.7677364864864865</v>
+        <v>0.8592901878914405</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.2292863002461034</v>
+        <v>0.7716024340770791</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>

--- a/website/word_heat/data/percentile.xlsx
+++ b/website/word_heat/data/percentile.xlsx
@@ -474,7 +474,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.9804839968774395</v>
+        <v>0.4488701646878591</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.8070175438596491</v>
+        <v>0.3080469404861693</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.2197759752800309</v>
+        <v>0.3203184230477635</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.6449537595496582</v>
+        <v>0.1009463722397476</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.5687203791469194</v>
+        <v>0.9356838434715227</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.675243664717349</v>
+        <v>0.3649579188982403</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.3088757396449704</v>
+        <v>0.6907894736842105</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.9843075715967046</v>
+        <v>0.7648190916089299</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.9227184466019418</v>
+        <v>0.3852896341463415</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.4514106583072101</v>
+        <v>0.5109573241061131</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.3721920991479473</v>
+        <v>0.2523755226149753</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.5421686746987951</v>
+        <v>0.09767625049231982</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.7298136645962733</v>
+        <v>0.3843809523809524</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.7809708737864077</v>
+        <v>0.3639481707317073</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.8532219570405728</v>
+        <v>0.3542723371049551</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.6756440281030445</v>
+        <v>0.2179241669858292</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.7126836813611755</v>
+        <v>0.9457305502846299</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.533852140077821</v>
+        <v>0.3386788850706376</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.9046310832025117</v>
+        <v>0.6488255679630343</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.6045789677920063</v>
+        <v>0.3221629855293222</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.7520891364902507</v>
+        <v>0.06518345042935207</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.9329214474845543</v>
+        <v>0.9291576673866091</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.4010861132660978</v>
+        <v>0.3098591549295774</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.4419241298396558</v>
+        <v>0.511128165771297</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.8489065606361829</v>
+        <v>0.983619344773791</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.8592901878914405</v>
+        <v>0.4738134206219313</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.7716024340770791</v>
+        <v>0.0513126491646778</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>

--- a/website/word_heat/data/percentile.xlsx
+++ b/website/word_heat/data/percentile.xlsx
@@ -474,7 +474,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.4488701646878591</v>
+        <v>0.4158415841584158</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.3080469404861693</v>
+        <v>0.578508954602249</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.3203184230477635</v>
+        <v>0.1074255559743686</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.1009463722397476</v>
+        <v>0.1724813798510388</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.9356838434715227</v>
+        <v>0.3848228043143297</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.3649579188982403</v>
+        <v>0.1449220235831115</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.6907894736842105</v>
+        <v>0.1539053482108503</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.7648190916089299</v>
+        <v>0.7076157673172598</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.3852896341463415</v>
+        <v>0.2330428192497158</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.5109573241061131</v>
+        <v>0.1918960244648318</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.2523755226149753</v>
+        <v>0.2396069538926682</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.09767625049231982</v>
+        <v>0.182850430696946</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.3843809523809524</v>
+        <v>0.2821969696969697</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.3639481707317073</v>
+        <v>0.1818870784388026</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.3542723371049551</v>
+        <v>0.2730799069045772</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.2179241669858292</v>
+        <v>0.09367859862909368</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.9457305502846299</v>
+        <v>0.6671698113207547</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.3386788850706376</v>
+        <v>0.1890660592255125</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.6488255679630343</v>
+        <v>0.2488514548238897</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.3221629855293222</v>
+        <v>0.2707307837940174</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.06518345042935207</v>
+        <v>0.06053550640279395</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.9291576673866091</v>
+        <v>0.4309012875536481</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.3098591549295774</v>
+        <v>0.1373959121877366</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.511128165771297</v>
+        <v>0.1938191529950401</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.983619344773791</v>
+        <v>0.8623497479643273</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.4738134206219313</v>
+        <v>0.6165107767385116</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.0513126491646778</v>
+        <v>0.1233689205219454</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>

--- a/website/word_heat/data/percentile.xlsx
+++ b/website/word_heat/data/percentile.xlsx
@@ -474,7 +474,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.4158415841584158</v>
+        <v>0.1382453475123433</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.578508954602249</v>
+        <v>0.2728405315614618</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.1074255559743686</v>
+        <v>0.1541353383458647</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.1724813798510388</v>
+        <v>0.2150117279124316</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.3848228043143297</v>
+        <v>0.4195159431425278</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.1449220235831115</v>
+        <v>0.1361911987860394</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.1539053482108503</v>
+        <v>0.5656178050652341</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.7076157673172598</v>
+        <v>0.7969465648854962</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.2330428192497158</v>
+        <v>0.190854119425548</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.1918960244648318</v>
+        <v>0.198246282882196</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.2396069538926682</v>
+        <v>0.2570674707877874</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.182850430696946</v>
+        <v>0.3334634908238969</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.2821969696969697</v>
+        <v>0.1775595013222516</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.1818870784388026</v>
+        <v>0.2180650037792895</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.2730799069045772</v>
+        <v>0.4742746615087041</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.09367859862909368</v>
+        <v>0.110520319027725</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.6671698113207547</v>
+        <v>0.4275498682724878</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.1890660592255125</v>
+        <v>0.1707686482393033</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.2488514548238897</v>
+        <v>0.2226040473463154</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.2707307837940174</v>
+        <v>0.1559667673716012</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.06053550640279395</v>
+        <v>0.09326625386996903</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.4309012875536481</v>
+        <v>0.3975181857081729</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.1373959121877366</v>
+        <v>0.1170252925632314</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.1938191529950401</v>
+        <v>0.1400304414003044</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.8623497479643273</v>
+        <v>0.7652745552977571</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.6165107767385116</v>
+        <v>0.3978102189781022</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.1233689205219454</v>
+        <v>0.1320977917981073</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>

--- a/website/word_heat/data/percentile.xlsx
+++ b/website/word_heat/data/percentile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>percentile</t>
   </si>
@@ -37,6 +37,9 @@
     <t>美股</t>
   </si>
   <si>
+    <t>地缘</t>
+  </si>
+  <si>
     <t>通胀</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>债券</t>
   </si>
   <si>
+    <t>政治</t>
+  </si>
+  <si>
     <t>黄金</t>
   </si>
   <si>
@@ -64,15 +70,33 @@
     <t>银行</t>
   </si>
   <si>
+    <t>估值</t>
+  </si>
+  <si>
+    <t>贸易</t>
+  </si>
+  <si>
+    <t>台湾</t>
+  </si>
+  <si>
     <t>利率</t>
   </si>
   <si>
+    <t>战争</t>
+  </si>
+  <si>
     <t>央行</t>
   </si>
   <si>
+    <t>经济</t>
+  </si>
+  <si>
     <t>股票</t>
   </si>
   <si>
+    <t>降息</t>
+  </si>
+  <si>
     <t>衰退</t>
   </si>
   <si>
@@ -83,6 +107,9 @@
   </si>
   <si>
     <t>汇率</t>
+  </si>
+  <si>
+    <t>降准</t>
   </si>
   <si>
     <t>杠杆</t>
@@ -458,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,7 +501,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.1382453475123433</v>
+        <v>0.3078947368421053</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -482,7 +509,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.2728405315614618</v>
+        <v>0.5880903490759753</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -490,7 +517,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.1541353383458647</v>
+        <v>0.1339784145887607</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -498,7 +525,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.2150117279124316</v>
+        <v>0.3052224371373308</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -506,7 +533,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.4195159431425278</v>
+        <v>0.3319391634980989</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -514,7 +541,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.1361911987860394</v>
+        <v>0.4781119147316331</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -522,7 +549,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.5656178050652341</v>
+        <v>0.1197897108524221</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -530,7 +557,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.7969465648854962</v>
+        <v>0.2362324344853779</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -538,7 +565,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.190854119425548</v>
+        <v>0.7378163959199093</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -546,7 +573,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.198246282882196</v>
+        <v>0.3628881406659185</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -554,7 +581,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.2570674707877874</v>
+        <v>0.2497208783029401</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -562,7 +589,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.3334634908238969</v>
+        <v>0.1467924528301887</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -570,7 +597,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.1775595013222516</v>
+        <v>0.2100746268656716</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -578,7 +605,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.2180650037792895</v>
+        <v>0.1819938176197836</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -586,7 +613,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.4742746615087041</v>
+        <v>0.3631264023934181</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -594,7 +621,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.110520319027725</v>
+        <v>0.4436962214739992</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -602,7 +629,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.4275498682724878</v>
+        <v>0.8926023282012767</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -610,7 +637,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.1707686482393033</v>
+        <v>0.9441017733230532</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -618,7 +645,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.2226040473463154</v>
+        <v>0.3845001871958068</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -626,7 +653,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.1559667673716012</v>
+        <v>0.8457120980091883</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -634,7 +661,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.09326625386996903</v>
+        <v>0.4212481426448737</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -642,7 +669,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.3975181857081729</v>
+        <v>0.5342105263157895</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -650,7 +677,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.1170252925632314</v>
+        <v>0.1899253731343284</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -658,7 +685,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.1400304414003044</v>
+        <v>0.620715350223547</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -666,7 +693,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.7652745552977571</v>
+        <v>0.3810422960725076</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -674,7 +701,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.3978102189781022</v>
+        <v>0.212143928035982</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -682,10 +709,82 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.1320977917981073</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>0.3360747663551402</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>0.128686327077748</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>0.8070306656694092</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>0.7842639593908629</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>0.07100149476831091</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>0.1250470809792844</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>0.8251052430156908</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>0.5848375451263538</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>0.1623097932110808</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/website/word_heat/data/percentile.xlsx
+++ b/website/word_heat/data/percentile.xlsx
@@ -501,7 +501,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.3078947368421053</v>
+        <v>0.1101536155863619</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.5880903490759753</v>
+        <v>0.2315875613747954</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.1339784145887607</v>
+        <v>0.06528189910979229</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.3052224371373308</v>
+        <v>0.06399383191981496</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.3319391634980989</v>
+        <v>0.2936718453959833</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.4781119147316331</v>
+        <v>0.2943854324734446</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.1197897108524221</v>
+        <v>0.02844311377245509</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.2362324344853779</v>
+        <v>0.01892505677517033</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.7378163959199093</v>
+        <v>0.9823042168674698</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.3628881406659185</v>
+        <v>0.7214765100671141</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.2497208783029401</v>
+        <v>0.2188427299703264</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.1467924528301887</v>
+        <v>0.1034223392252727</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.2100746268656716</v>
+        <v>0.1926366679062849</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.1819938176197836</v>
+        <v>0.1039661147477859</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.3631264023934181</v>
+        <v>0.2169213566902721</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.4436962214739992</v>
+        <v>0.5592841163310962</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.8926023282012767</v>
+        <v>0.874251497005988</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.9441017733230532</v>
+        <v>0.8271225509028045</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.3845001871958068</v>
+        <v>0.2055970149253731</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.8457120980091883</v>
+        <v>0.304845478824876</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.4212481426448737</v>
+        <v>0.322843391336542</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.5342105263157895</v>
+        <v>0.1225177969276883</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.1899253731343284</v>
+        <v>0.03718854592785422</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.620715350223547</v>
+        <v>0.7872261418492388</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.3810422960725076</v>
+        <v>0.04666917576213775</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.212143928035982</v>
+        <v>0.1363466567052671</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.2959183673469388</v>
+        <v>0.08851224105461393</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>0.3360747663551402</v>
+        <v>0.2958271236959761</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>0.128686327077748</v>
+        <v>0.02595419847328244</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>0.8070306656694092</v>
+        <v>0.1688408497950056</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>0.7842639593908629</v>
+        <v>0.8866413822166035</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>0.07100149476831091</v>
+        <v>0.02644320297951583</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>0.1250470809792844</v>
+        <v>0.1313813813813814</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>0.8251052430156908</v>
+        <v>0.7231121281464531</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>0.5848375451263538</v>
+        <v>0.3521183053557154</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>0.1623097932110808</v>
+        <v>0.04199066874027994</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>

--- a/website/word_heat/data/percentile.xlsx
+++ b/website/word_heat/data/percentile.xlsx
@@ -501,7 +501,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.1101536155863619</v>
+        <v>0.3597922848664689</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.2315875613747954</v>
+        <v>0.3605827600161878</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.06528189910979229</v>
+        <v>0.2196107234667646</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.06399383191981496</v>
+        <v>0.1442197634490652</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.2936718453959833</v>
+        <v>0.3578394598649662</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.2943854324734446</v>
+        <v>0.4355989485542621</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.02844311377245509</v>
+        <v>0.1459799925898481</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.01892505677517033</v>
+        <v>0.1157736980142375</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.9823042168674698</v>
+        <v>0.8568766306373462</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.7214765100671141</v>
+        <v>0.6286452565522332</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.2188427299703264</v>
+        <v>0.2702901211898641</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.1034223392252727</v>
+        <v>0.191734921816828</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.1926366679062849</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.1039661147477859</v>
+        <v>0.7126524390243902</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.2169213566902721</v>
+        <v>0.3479704797047971</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.5592841163310962</v>
+        <v>0.3816906607604282</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.874251497005988</v>
+        <v>0.9440533530937384</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.8271225509028045</v>
+        <v>0.7365019011406844</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.2055970149253731</v>
+        <v>0.2681935722201699</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.304845478824876</v>
+        <v>0.3734894259818731</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.322843391336542</v>
+        <v>0.3163489736070381</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.1225177969276883</v>
+        <v>0.1991839762611276</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.03718854592785422</v>
+        <v>0.1126656848306333</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.7872261418492388</v>
+        <v>0.7426470588235294</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.04666917576213775</v>
+        <v>0.1073025335320417</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.1363466567052671</v>
+        <v>0.3113905325443787</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.08851224105461393</v>
+        <v>0.4000745712155108</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>0.2958271236959761</v>
+        <v>0.3360383622279602</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>0.02595419847328244</v>
+        <v>0.05931242916509256</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>0.1688408497950056</v>
+        <v>0.3232472324723247</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>0.8866413822166035</v>
+        <v>0.7829166666666667</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>0.02644320297951583</v>
+        <v>0.1445427728613569</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>0.1313813813813814</v>
+        <v>0.1858045336306206</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>0.7231121281464531</v>
+        <v>0.8320120800302001</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>0.3521183053557154</v>
+        <v>0.4994068801897983</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>0.04199066874027994</v>
+        <v>0.1088880338591766</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>

--- a/website/word_heat/data/percentile.xlsx
+++ b/website/word_heat/data/percentile.xlsx
@@ -501,7 +501,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.3597922848664689</v>
+        <v>0.2922740524781341</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.3605827600161878</v>
+        <v>0.5831679237792775</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.2196107234667646</v>
+        <v>0.06854256854256854</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.1442197634490652</v>
+        <v>0.1464419475655431</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.3578394598649662</v>
+        <v>0.2774502579218865</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.4355989485542621</v>
+        <v>0.183327185540391</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.1459799925898481</v>
+        <v>0.04696032034947215</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.1157736980142375</v>
+        <v>0.0125138019874862</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.8568766306373462</v>
+        <v>0.6590992310508971</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.6286452565522332</v>
+        <v>0.2680449764236489</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.2702901211898641</v>
+        <v>0.1158426560808372</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.191734921816828</v>
+        <v>0.112289685442575</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.2142857142857143</v>
+        <v>0.1924746743849494</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.7126524390243902</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.3479704797047971</v>
+        <v>0.3037332366799565</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.3816906607604282</v>
+        <v>0.338411316648531</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.9440533530937384</v>
+        <v>0.9060793593010557</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.7365019011406844</v>
+        <v>0.5938783128032848</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.2681935722201699</v>
+        <v>0.2144412191582003</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.3734894259818731</v>
+        <v>0.1654302670623145</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.3163489736070381</v>
+        <v>0.170327691753691</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.1991839762611276</v>
+        <v>0.1246355685131195</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.1126656848306333</v>
+        <v>0.02170767004341534</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.7426470588235294</v>
+        <v>0.5473265895953757</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.1073025335320417</v>
+        <v>0.04575402635431918</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.3113905325443787</v>
+        <v>0.1718125681075191</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.4000745712155108</v>
+        <v>0.1461538461538462</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>0.3360383622279602</v>
+        <v>0.3054347826086957</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>0.05931242916509256</v>
+        <v>0.06159554730983302</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>0.3232472324723247</v>
+        <v>0.2393038433647571</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>0.7829166666666667</v>
+        <v>0.8811274509803921</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>0.1445427728613569</v>
+        <v>0.007608695652173913</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>0.1858045336306206</v>
+        <v>0.09236947791164658</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>0.8320120800302001</v>
+        <v>0.7849462365591398</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>0.4994068801897983</v>
+        <v>0.6643383779588669</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>0.1088880338591766</v>
+        <v>0.1650925576123914</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>

--- a/website/word_heat/data/percentile.xlsx
+++ b/website/word_heat/data/percentile.xlsx
@@ -501,7 +501,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.2922740524781341</v>
+        <v>0.2742675608895164</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.5831679237792775</v>
+        <v>0.4959723820483314</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.06854256854256854</v>
+        <v>0.1346624693948933</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.1464419475655431</v>
+        <v>0.3698332124728064</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.2774502579218865</v>
+        <v>0.5991440798858774</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.183327185540391</v>
+        <v>0.3101107538406574</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.04696032034947215</v>
+        <v>0.09171075837742504</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.0125138019874862</v>
+        <v>0.2658588738417677</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.6590992310508971</v>
+        <v>0.5276595744680851</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.2680449764236489</v>
+        <v>0.3128295254833041</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.1158426560808372</v>
+        <v>0.1874125874125874</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.112289685442575</v>
+        <v>0.1615875265768958</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.1924746743849494</v>
+        <v>0.2769015071854188</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.2839506172839506</v>
+        <v>0.3815217391304348</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.3037332366799565</v>
+        <v>0.2894274675096593</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.338411316648531</v>
+        <v>0.3504393673110721</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.9060793593010557</v>
+        <v>0.8268688293370945</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.5938783128032848</v>
+        <v>0.5397686189443239</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.2144412191582003</v>
+        <v>0.2557157931762223</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.1654302670623145</v>
+        <v>0.4242097701149425</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.170327691753691</v>
+        <v>0.2782821229050279</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.1246355685131195</v>
+        <v>0.263771186440678</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.02170767004341534</v>
+        <v>0.09915907498248074</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.5473265895953757</v>
+        <v>0.5022751137556878</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.04575402635431918</v>
+        <v>0.2968085106382979</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.1718125681075191</v>
+        <v>0.205137227304715</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.1461538461538462</v>
+        <v>0.2596665484214261</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>0.3054347826086957</v>
+        <v>0.2742275280898877</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>0.06159554730983302</v>
+        <v>0.3539346029464607</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>0.2393038433647571</v>
+        <v>0.4019676739283204</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>0.8811274509803921</v>
+        <v>0.5425867507886435</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>0.007608695652173913</v>
+        <v>0.1253071253071253</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>0.09236947791164658</v>
+        <v>0.1673151750972763</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>0.7849462365591398</v>
+        <v>0.7292639138240574</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>0.6643383779588669</v>
+        <v>0.7103189493433396</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>0.1650925576123914</v>
+        <v>0.4314442413162706</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
